--- a/PARAprobar.xlsx
+++ b/PARAprobar.xlsx
@@ -464,9 +464,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
